--- a/test_files/carboamination.xlsx
+++ b/test_files/carboamination.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">TS(A5,A6)-CC</t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">Co-Ligand1</t>
@@ -330,10 +330,10 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:O43"/>
+      <selection pane="topLeft" activeCell="S8" activeCellId="0" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
